--- a/results/mp/logistic/home-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/168/stop-words-topk-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,166 +46,238 @@
     <t>returned</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>cracked</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>useless</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>however</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>difficult</t>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>filter</t>
   </si>
   <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>filter</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>doesn</t>
+  </si>
+  <si>
+    <t>but</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>worked</t>
   </si>
   <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>2</t>
+    <t>if</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -566,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,38 +707,38 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9292035398230089</v>
+        <v>0.9380530973451328</v>
       </c>
       <c r="C3">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3">
+        <v>0.8203125</v>
+      </c>
+      <c r="L3">
         <v>105</v>
       </c>
-      <c r="D3">
+      <c r="M3">
         <v>105</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="L3">
-        <v>75</v>
-      </c>
-      <c r="M3">
-        <v>75</v>
-      </c>
       <c r="N3">
         <v>1</v>
       </c>
@@ -677,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9191919191919192</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>0.8046875</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="L4">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="M4">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>25</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="K5">
-        <v>0.7608695652173914</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8867924528301887</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="K6">
-        <v>0.7291021671826625</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L6">
-        <v>471</v>
+        <v>208</v>
       </c>
       <c r="M6">
-        <v>471</v>
+        <v>208</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>175</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8728813559322034</v>
+        <v>0.86</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="D7">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>0.7152542372881356</v>
+        <v>0.5928792569659442</v>
       </c>
       <c r="L7">
-        <v>211</v>
+        <v>383</v>
       </c>
       <c r="M7">
-        <v>211</v>
+        <v>383</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>84</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8493150684931506</v>
+        <v>0.85</v>
       </c>
       <c r="C8">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="D8">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="K8">
-        <v>0.5670995670995671</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L8">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="M8">
-        <v>131</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8076923076923077</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="C9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="K9">
-        <v>0.5194805194805194</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7891891891891892</v>
+        <v>0.7783783783783784</v>
       </c>
       <c r="C10">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="K10">
-        <v>0.4210526315789473</v>
+        <v>0.3552631578947368</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7727272727272727</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C11">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D11">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.3561643835616438</v>
+        <v>0.2057142857142857</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="M11">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>47</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7358490566037735</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="K12">
-        <v>0.3085714285714286</v>
+        <v>0.1637239165329053</v>
       </c>
       <c r="L12">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="M12">
-        <v>54</v>
+        <v>204</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>121</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.725</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,31 +1225,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="K13">
-        <v>0.2371382636655948</v>
+        <v>0.05342465753424658</v>
       </c>
       <c r="L13">
-        <v>295</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>297</v>
+        <v>39</v>
       </c>
       <c r="N13">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>949</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6962962962962963</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C14">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,31 +1275,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="K14">
-        <v>0.2252252252252252</v>
+        <v>0.02023121387283237</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>86</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1307,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6764705882352942</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C15">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,31 +1325,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>22</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15">
-        <v>0.1095890410958904</v>
-      </c>
-      <c r="L15">
-        <v>80</v>
-      </c>
-      <c r="M15">
-        <v>80</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>650</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1333,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6555555555555556</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="C16">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="D16">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1311,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6410256410256411</v>
+        <v>0.6301369863013698</v>
       </c>
       <c r="C17">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1329,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>70</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1337,13 +1385,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6338028169014085</v>
+        <v>0.6047619047619047</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>1143</v>
       </c>
       <c r="D18">
-        <v>45</v>
+        <v>1143</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1355,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26</v>
+        <v>747</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1363,13 +1411,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6153846153846154</v>
+        <v>0.5754716981132075</v>
       </c>
       <c r="C19">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1381,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1389,13 +1437,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6037735849056604</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C20">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1407,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1415,13 +1463,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5736434108527132</v>
+        <v>0.5407407407407407</v>
       </c>
       <c r="C21">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D21">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1433,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1441,13 +1489,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5675675675675675</v>
+        <v>0.5348837209302325</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D22">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1459,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1467,13 +1515,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5632183908045977</v>
+        <v>0.5025641025641026</v>
       </c>
       <c r="C23">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="D23">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1485,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>38</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1493,13 +1541,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5384615384615384</v>
+        <v>0.4788732394366197</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1511,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1519,13 +1567,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5309734513274337</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C25">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1537,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1545,13 +1593,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4563106796116505</v>
+        <v>0.4247787610619469</v>
       </c>
       <c r="C26">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1563,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1571,13 +1619,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4363636363636363</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1589,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1597,13 +1645,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4294871794871795</v>
+        <v>0.3986486486486486</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1623,25 +1671,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3743016759776536</v>
+        <v>0.3495145631067961</v>
       </c>
       <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>67</v>
-      </c>
-      <c r="D29">
-        <v>67</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1649,13 +1697,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.305</v>
+        <v>0.3351351351351352</v>
       </c>
       <c r="C30">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="D30">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1667,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>139</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1675,13 +1723,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.24</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1693,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1701,13 +1749,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2380952380952381</v>
+        <v>0.2825278810408922</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1719,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>96</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1727,13 +1775,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2268041237113402</v>
+        <v>0.2755555555555556</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D33">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1745,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>75</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1753,13 +1801,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2222222222222222</v>
+        <v>0.2723492723492724</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>393</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>393</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1771,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>77</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1779,13 +1827,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2102425876010782</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C35">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="D35">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1797,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>293</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1805,13 +1853,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2095238095238095</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1823,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>166</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1831,13 +1879,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1586206896551724</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1849,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>122</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1857,13 +1905,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1262626262626263</v>
+        <v>0.217741935483871</v>
       </c>
       <c r="C38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D38">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1875,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>173</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1883,13 +1931,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1224489795918367</v>
+        <v>0.1961538461538462</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1901,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>258</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1909,13 +1957,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1182795698924731</v>
+        <v>0.1590296495956873</v>
       </c>
       <c r="C40">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1927,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>164</v>
+        <v>312</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1935,13 +1983,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1047619047619048</v>
+        <v>0.1386666666666667</v>
       </c>
       <c r="C41">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D41">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1953,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>658</v>
+        <v>969</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1961,13 +2009,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.0903010033444816</v>
+        <v>0.125</v>
       </c>
       <c r="C42">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1979,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>272</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1987,13 +2035,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05365853658536585</v>
+        <v>0.1095238095238095</v>
       </c>
       <c r="C43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2005,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>388</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2013,13 +2061,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.05084745762711865</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C44">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D44">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2031,7 +2079,657 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>728</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="C45">
+        <v>24</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.06236559139784946</v>
+      </c>
+      <c r="C46">
+        <v>29</v>
+      </c>
+      <c r="D46">
+        <v>29</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.0580046403712297</v>
+      </c>
+      <c r="C47">
+        <v>75</v>
+      </c>
+      <c r="D47">
+        <v>75</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.05783582089552239</v>
+      </c>
+      <c r="C48">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.05741127348643006</v>
+      </c>
+      <c r="C49">
+        <v>55</v>
+      </c>
+      <c r="D49">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.05518763796909492</v>
+      </c>
+      <c r="C50">
+        <v>25</v>
+      </c>
+      <c r="D50">
+        <v>25</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51">
+        <v>0.05493562231759656</v>
+      </c>
+      <c r="C51">
+        <v>128</v>
+      </c>
+      <c r="D51">
+        <v>130</v>
+      </c>
+      <c r="E51">
+        <v>0.02</v>
+      </c>
+      <c r="F51">
+        <v>0.98</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52">
+        <v>0.04823989569752282</v>
+      </c>
+      <c r="C52">
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53">
+        <v>0.0446521287642783</v>
+      </c>
+      <c r="C53">
+        <v>301</v>
+      </c>
+      <c r="D53">
+        <v>305</v>
+      </c>
+      <c r="E53">
+        <v>0.01</v>
+      </c>
+      <c r="F53">
+        <v>0.99</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54">
+        <v>0.04353741496598639</v>
+      </c>
+      <c r="C54">
+        <v>32</v>
+      </c>
+      <c r="D54">
+        <v>32</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55">
+        <v>0.03897550111358575</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>35</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>0.03732394366197183</v>
+      </c>
+      <c r="C56">
+        <v>53</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+      <c r="E56">
+        <v>0.04</v>
+      </c>
+      <c r="F56">
+        <v>0.96</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.03682934222491664</v>
+      </c>
+      <c r="C57">
+        <v>243</v>
+      </c>
+      <c r="D57">
+        <v>245</v>
+      </c>
+      <c r="E57">
+        <v>0.01</v>
+      </c>
+      <c r="F57">
+        <v>0.99</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>6355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.03300645778521884</v>
+      </c>
+      <c r="C58">
+        <v>138</v>
+      </c>
+      <c r="D58">
+        <v>140</v>
+      </c>
+      <c r="E58">
+        <v>0.01</v>
+      </c>
+      <c r="F58">
+        <v>0.99</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>4043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>0.03183023872679045</v>
+      </c>
+      <c r="C59">
+        <v>24</v>
+      </c>
+      <c r="D59">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60">
+        <v>0.02909298345693098</v>
+      </c>
+      <c r="C60">
+        <v>51</v>
+      </c>
+      <c r="D60">
+        <v>53</v>
+      </c>
+      <c r="E60">
+        <v>0.04</v>
+      </c>
+      <c r="F60">
+        <v>0.96</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61">
+        <v>0.02824368613842298</v>
+      </c>
+      <c r="C61">
+        <v>293</v>
+      </c>
+      <c r="D61">
+        <v>301</v>
+      </c>
+      <c r="E61">
+        <v>0.03</v>
+      </c>
+      <c r="F61">
+        <v>0.97</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>10081</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62">
+        <v>0.02180376610505451</v>
+      </c>
+      <c r="C62">
+        <v>66</v>
+      </c>
+      <c r="D62">
+        <v>69</v>
+      </c>
+      <c r="E62">
+        <v>0.04</v>
+      </c>
+      <c r="F62">
+        <v>0.96</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.02163275817666753</v>
+      </c>
+      <c r="C63">
+        <v>84</v>
+      </c>
+      <c r="D63">
+        <v>88</v>
+      </c>
+      <c r="E63">
+        <v>0.05</v>
+      </c>
+      <c r="F63">
+        <v>0.95</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.02039082412914189</v>
+      </c>
+      <c r="C64">
+        <v>24</v>
+      </c>
+      <c r="D64">
+        <v>27</v>
+      </c>
+      <c r="E64">
+        <v>0.11</v>
+      </c>
+      <c r="F64">
+        <v>0.89</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.01780645161290323</v>
+      </c>
+      <c r="C65">
+        <v>69</v>
+      </c>
+      <c r="D65">
+        <v>72</v>
+      </c>
+      <c r="E65">
+        <v>0.04</v>
+      </c>
+      <c r="F65">
+        <v>0.96</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>3806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.01447906830343091</v>
+      </c>
+      <c r="C66">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>54</v>
+      </c>
+      <c r="E66">
+        <v>0.15</v>
+      </c>
+      <c r="F66">
+        <v>0.85</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.01295620437956204</v>
+      </c>
+      <c r="C67">
+        <v>71</v>
+      </c>
+      <c r="D67">
+        <v>80</v>
+      </c>
+      <c r="E67">
+        <v>0.11</v>
+      </c>
+      <c r="F67">
+        <v>0.89</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>5409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.01099303774276292</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>31</v>
+      </c>
+      <c r="E68">
+        <v>0.03</v>
+      </c>
+      <c r="F68">
+        <v>0.97</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.006939625260235947</v>
+      </c>
+      <c r="C69">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>45</v>
+      </c>
+      <c r="E69">
+        <v>0.33</v>
+      </c>
+      <c r="F69">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>4293</v>
       </c>
     </row>
   </sheetData>
